--- a/ProjectFiles/OpenCart-TestCases.xlsx
+++ b/ProjectFiles/OpenCart-TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Study\01_Velocity\0a_Opencart Front End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569DE73-56CE-4551-89FF-C4907945BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95171B26-5DC2-4707-95CD-2BB3D7D22419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="2144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="2147">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -8201,6 +8201,15 @@
 Password -
 James@123
 </t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not Shared</t>
   </si>
 </sst>
 </file>
@@ -8365,7 +8374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8418,12 +8427,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -8799,7 +8802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9031,19 +9034,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27003,7 +26993,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9EBEA5A-BCB1-4B66-8D49-C6F604F1CD20}" name="Table2" displayName="Table2" ref="A10:E41" totalsRowShown="0" headerRowDxfId="831" dataDxfId="830" tableBorderDxfId="829">
-  <autoFilter ref="A10:E41" xr:uid="{C9EBEA5A-BCB1-4B66-8D49-C6F604F1CD20}"/>
+  <autoFilter ref="A10:E41" xr:uid="{C9EBEA5A-BCB1-4B66-8D49-C6F604F1CD20}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="P0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B5C3D6E4-DE68-441C-81E6-C1AD5469C263}" name="Test Scenario ID" dataDxfId="828" dataCellStyle="Hyperlink"/>
     <tableColumn id="2" xr3:uid="{C9E6392E-4D3D-4430-82E6-46C11E0F69DF}" name=" Reference" dataDxfId="827"/>
@@ -27746,7 +27742,7 @@
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="105" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="48" t="s">
@@ -27757,7 +27753,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="110"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="50" t="s">
         <v>15</v>
       </c>
@@ -27766,7 +27762,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="110"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
@@ -27924,10 +27920,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -27945,8 +27941,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -27974,7 +27970,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -28003,7 +27999,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
@@ -28032,7 +28028,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
@@ -28061,7 +28057,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.3">
@@ -28090,7 +28086,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -28119,7 +28115,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -28148,7 +28144,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -28177,7 +28173,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -28206,7 +28202,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="83"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
   </sheetData>
@@ -28335,10 +28331,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -28356,8 +28352,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -28385,7 +28381,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -28414,7 +28410,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -28443,7 +28439,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -28472,7 +28468,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -28501,7 +28497,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -28530,7 +28526,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -28559,7 +28555,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -28588,7 +28584,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -28617,7 +28613,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -28646,7 +28642,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -28675,7 +28671,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -28704,7 +28700,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -28733,7 +28729,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -28762,7 +28758,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -28791,7 +28787,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -28820,7 +28816,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
@@ -28849,7 +28845,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -28878,7 +28874,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -28907,7 +28903,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="83"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -29067,10 +29063,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="98" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="99" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -29088,8 +29084,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -29117,8 +29113,8 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="88.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -29146,8 +29142,8 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -29175,8 +29171,8 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -29204,8 +29200,8 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -29233,8 +29229,8 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -29262,8 +29258,8 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -29291,8 +29287,8 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -29320,8 +29316,8 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -29349,8 +29345,8 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:13" ht="126" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -29378,8 +29374,8 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -29407,8 +29403,8 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
     </row>
     <row r="14" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -29436,8 +29432,8 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -29465,8 +29461,8 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
     </row>
     <row r="16" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -29494,8 +29490,8 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -29523,8 +29519,8 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
     </row>
     <row r="18" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -29552,8 +29548,8 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
     </row>
     <row r="19" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -29581,8 +29577,8 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13" ht="189" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -29610,8 +29606,8 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
     </row>
     <row r="21" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -29639,8 +29635,8 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -29668,8 +29664,8 @@
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
     </row>
     <row r="23" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -29697,8 +29693,8 @@
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
     </row>
     <row r="24" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -29726,8 +29722,8 @@
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
     </row>
     <row r="25" spans="1:13" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -29755,8 +29751,8 @@
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
     </row>
     <row r="26" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
@@ -29784,8 +29780,8 @@
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
     </row>
     <row r="27" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -29813,8 +29809,8 @@
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
     </row>
     <row r="28" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
@@ -29842,8 +29838,8 @@
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
     </row>
     <row r="29" spans="1:13" ht="189" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -29871,8 +29867,8 @@
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
     </row>
     <row r="30" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -30045,8 +30041,8 @@
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -30173,10 +30169,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -30194,8 +30190,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -30223,7 +30219,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -30252,7 +30248,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -30281,7 +30277,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -30310,7 +30306,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -30339,7 +30335,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -30368,7 +30364,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
@@ -30397,7 +30393,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -30426,7 +30422,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -30455,7 +30451,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -30484,7 +30480,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="83"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -30681,10 +30677,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -30702,8 +30698,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -30731,7 +30727,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -30760,7 +30756,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -30789,7 +30785,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -30818,7 +30814,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="277.2" x14ac:dyDescent="0.2">
@@ -30847,7 +30843,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="327.60000000000002" x14ac:dyDescent="0.2">
@@ -30876,7 +30872,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="327.60000000000002" x14ac:dyDescent="0.2">
@@ -30905,7 +30901,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -30934,7 +30930,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -30963,7 +30959,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="327.60000000000002" x14ac:dyDescent="0.2">
@@ -30992,7 +30988,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="327.60000000000002" x14ac:dyDescent="0.2">
@@ -31021,7 +31017,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31050,7 +31046,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31079,7 +31075,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="246" customHeight="1" x14ac:dyDescent="0.2">
@@ -31108,7 +31104,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="249" customHeight="1" x14ac:dyDescent="0.2">
@@ -31137,7 +31133,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31166,7 +31162,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="289.8" x14ac:dyDescent="0.2">
@@ -31195,7 +31191,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="274.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31224,7 +31220,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31253,7 +31249,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31282,7 +31278,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="83"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -31439,10 +31435,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -31460,8 +31456,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -31489,7 +31485,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -31518,7 +31514,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31547,7 +31543,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31576,7 +31572,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -31605,7 +31601,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -31634,7 +31630,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -31663,7 +31659,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31692,7 +31688,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -31721,7 +31717,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="83"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -31922,10 +31918,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -31943,8 +31939,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -31972,7 +31968,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -32001,7 +31997,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -32030,7 +32026,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32059,7 +32055,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -32088,7 +32084,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -32117,7 +32113,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -32146,7 +32142,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -32175,7 +32171,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -32204,7 +32200,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -32233,7 +32229,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -32262,7 +32258,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -32291,7 +32287,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32320,7 +32316,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="83"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -33209,10 +33205,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -33230,8 +33226,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -33259,7 +33255,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -33288,7 +33284,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -33317,7 +33313,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33346,7 +33342,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -33375,7 +33371,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33404,7 +33400,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -33433,7 +33429,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33462,7 +33458,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -33491,7 +33487,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33520,7 +33516,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33549,7 +33545,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -33578,7 +33574,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33607,7 +33603,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33636,7 +33632,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="274.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33665,7 +33661,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="264.60000000000002" x14ac:dyDescent="0.2">
@@ -33694,7 +33690,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -33723,7 +33719,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33752,7 +33748,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -33781,7 +33777,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -33810,7 +33806,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -33839,7 +33835,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="83"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -33992,10 +33988,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -34013,8 +34009,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -34042,7 +34038,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34071,7 +34067,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -34100,7 +34096,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34129,7 +34125,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -34158,7 +34154,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34187,7 +34183,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34216,7 +34212,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -34245,7 +34241,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34274,7 +34270,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34303,7 +34299,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34332,7 +34328,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -34361,7 +34357,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="83"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -34495,7 +34491,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E41"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -34631,7 +34627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>151</v>
       </c>
@@ -34648,7 +34644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>213</v>
       </c>
@@ -34665,7 +34661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>269</v>
       </c>
@@ -34682,7 +34678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>309</v>
       </c>
@@ -34699,7 +34695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>385</v>
       </c>
@@ -34716,7 +34712,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>402</v>
       </c>
@@ -34733,7 +34729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>442</v>
       </c>
@@ -34750,7 +34746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>526</v>
       </c>
@@ -34767,7 +34763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>537</v>
       </c>
@@ -34784,7 +34780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>576</v>
       </c>
@@ -34801,7 +34797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>592</v>
       </c>
@@ -34818,7 +34814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>617</v>
       </c>
@@ -34835,7 +34831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>703</v>
       </c>
@@ -34852,7 +34848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>704</v>
       </c>
@@ -34869,7 +34865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>719</v>
       </c>
@@ -34886,7 +34882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>724</v>
       </c>
@@ -34903,7 +34899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>746</v>
       </c>
@@ -34920,7 +34916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>797</v>
       </c>
@@ -34937,7 +34933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>798</v>
       </c>
@@ -34954,7 +34950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>825</v>
       </c>
@@ -34971,7 +34967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>848</v>
       </c>
@@ -34988,7 +34984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>866</v>
       </c>
@@ -35005,7 +35001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>904</v>
       </c>
@@ -35022,7 +35018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>930</v>
       </c>
@@ -35039,7 +35035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>961</v>
       </c>
@@ -35056,7 +35052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>998</v>
       </c>
@@ -35073,7 +35069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>1057</v>
       </c>
@@ -35090,7 +35086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="47.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>1070</v>
       </c>
@@ -35217,10 +35213,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -35238,8 +35234,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -35267,7 +35263,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -35296,7 +35292,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -35325,7 +35321,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -35354,7 +35350,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -35383,7 +35379,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -35412,7 +35408,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -35441,7 +35437,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -35470,7 +35466,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="83"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -35675,10 +35671,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -35696,8 +35692,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -35725,7 +35721,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.2">
@@ -35754,7 +35750,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -35783,7 +35779,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -35812,7 +35808,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -35841,7 +35837,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -35870,7 +35866,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -35899,7 +35895,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -35928,7 +35924,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -35957,7 +35953,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -35986,7 +35982,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36015,7 +36011,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="83"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -36208,10 +36204,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -36229,8 +36225,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -36258,7 +36254,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36287,7 +36283,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36316,7 +36312,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -36345,7 +36341,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -36374,7 +36370,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -36403,7 +36399,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -36432,7 +36428,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36461,7 +36457,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36490,7 +36486,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -36519,7 +36515,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -36548,7 +36544,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -36577,7 +36573,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -36606,7 +36602,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="83"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -36790,10 +36786,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -36811,8 +36807,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -36840,7 +36836,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -36869,7 +36865,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -36898,7 +36894,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -36927,7 +36923,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -36956,7 +36952,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -36985,7 +36981,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -37014,7 +37010,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -37043,7 +37039,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -37072,7 +37068,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -37101,7 +37097,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -37130,7 +37126,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -37159,7 +37155,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -37188,7 +37184,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -37217,7 +37213,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -37246,7 +37242,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -37275,7 +37271,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="83"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
   </sheetData>
@@ -37404,10 +37400,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -37425,8 +37421,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -37454,7 +37450,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -37483,7 +37479,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -37512,7 +37508,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -37541,7 +37537,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -37570,7 +37566,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -37599,7 +37595,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -37628,7 +37624,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -37657,7 +37653,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -37686,7 +37682,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -37715,7 +37711,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -37744,7 +37740,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
@@ -37773,7 +37769,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -37802,7 +37798,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -37831,7 +37827,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -37860,7 +37856,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -37889,7 +37885,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -37918,7 +37914,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="83"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -38087,10 +38083,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -38108,8 +38104,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -38137,7 +38133,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38166,7 +38162,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -38195,7 +38191,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -38224,7 +38220,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -38253,7 +38249,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -38282,7 +38278,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38311,7 +38307,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -38340,7 +38336,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38369,7 +38365,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -38398,7 +38394,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="83"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -38595,10 +38591,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -38616,8 +38612,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -38645,7 +38641,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38674,7 +38670,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38703,7 +38699,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -38732,7 +38728,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -38761,7 +38757,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38790,7 +38786,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -38819,7 +38815,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38848,7 +38844,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -38877,7 +38873,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -38906,7 +38902,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -38935,7 +38931,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="83"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -39126,10 +39122,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="98" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="99" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -39147,8 +39143,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -39176,8 +39172,8 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -39205,8 +39201,8 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="1:13" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -39234,8 +39230,8 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -39263,8 +39259,8 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
     </row>
     <row r="7" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -39292,8 +39288,8 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -39321,8 +39317,8 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -39350,8 +39346,8 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -39379,8 +39375,8 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -39408,8 +39404,8 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
     </row>
     <row r="12" spans="1:13" ht="260.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -39437,8 +39433,8 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
     </row>
     <row r="13" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -39466,8 +39462,8 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -39495,8 +39491,8 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -39524,8 +39520,8 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -39553,8 +39549,8 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
     </row>
     <row r="17" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -39582,8 +39578,8 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
     </row>
     <row r="18" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -39611,8 +39607,8 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
     </row>
     <row r="19" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -39640,8 +39636,8 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
     </row>
     <row r="20" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -39669,8 +39665,8 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
     </row>
     <row r="21" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -39698,8 +39694,8 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
     </row>
     <row r="22" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -39727,8 +39723,8 @@
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
     </row>
     <row r="23" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -39756,8 +39752,8 @@
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
     </row>
     <row r="24" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -39785,8 +39781,8 @@
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
     </row>
     <row r="25" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -39814,8 +39810,8 @@
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
@@ -39843,8 +39839,8 @@
       <c r="I26" s="15"/>
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
     </row>
     <row r="27" spans="1:13" ht="226.8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -39872,8 +39868,8 @@
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
     </row>
     <row r="28" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -39901,8 +39897,8 @@
       <c r="I28" s="15"/>
       <c r="J28" s="16"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
     </row>
     <row r="29" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -39930,8 +39926,8 @@
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
     </row>
     <row r="30" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -40117,10 +40113,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -40138,8 +40134,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -40167,7 +40163,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40196,7 +40192,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40225,7 +40221,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40254,7 +40250,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40283,7 +40279,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40312,7 +40308,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -40341,7 +40337,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40370,7 +40366,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40399,7 +40395,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="83"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -40600,10 +40596,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -40621,8 +40617,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -40650,7 +40646,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40679,7 +40675,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -40708,7 +40704,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -40737,7 +40733,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -40766,7 +40762,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40795,7 +40791,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -40824,7 +40820,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -40853,7 +40849,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -40882,7 +40878,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40911,7 +40907,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40940,7 +40936,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -40969,7 +40965,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -40998,7 +40994,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="83"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -41128,8 +41124,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="G22" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -41234,7 +41230,9 @@
         <v>2137</v>
       </c>
       <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="L3" s="68" t="s">
+        <v>2145</v>
+      </c>
       <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -41296,8 +41294,12 @@
         <v>2137</v>
       </c>
       <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="68" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M5" s="63" t="s">
+        <v>2144</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
@@ -41575,8 +41577,12 @@
         <v>2137</v>
       </c>
       <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="63"/>
+      <c r="L14" s="68" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>2146</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -41637,8 +41643,12 @@
         <v>2137</v>
       </c>
       <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="63"/>
+      <c r="L16" s="68" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>2146</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
@@ -42170,10 +42180,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -42191,8 +42201,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -42220,7 +42230,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -42249,7 +42259,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="246.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -42278,7 +42288,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -42307,7 +42317,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -42336,7 +42346,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -42365,7 +42375,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -42394,7 +42404,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -42423,7 +42433,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -42452,7 +42462,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -42481,7 +42491,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -42510,7 +42520,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -42539,7 +42549,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -42568,7 +42578,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="83"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -42752,10 +42762,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -42773,8 +42783,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -42802,7 +42812,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="303.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -42831,7 +42841,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -42860,7 +42870,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -42889,7 +42899,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -42918,7 +42928,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -42947,7 +42957,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="340.2" x14ac:dyDescent="0.3">
@@ -42976,7 +42986,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -43005,7 +43015,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -43034,7 +43044,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -43063,7 +43073,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -43092,7 +43102,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="83"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
   </sheetData>
@@ -43219,10 +43229,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -43240,8 +43250,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -43269,7 +43279,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43298,7 +43308,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43327,7 +43337,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -43356,7 +43366,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43385,7 +43395,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43414,7 +43424,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43443,7 +43453,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43472,7 +43482,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -43501,7 +43511,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43530,7 +43540,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43559,7 +43569,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43588,7 +43598,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43617,7 +43627,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -43646,7 +43656,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -43675,7 +43685,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -43704,7 +43714,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -43733,7 +43743,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -43762,7 +43772,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43791,7 +43801,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43820,7 +43830,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43849,7 +43859,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.2">
@@ -43878,7 +43888,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="83"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -44024,10 +44034,10 @@
       <c r="K1" s="85" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -44045,8 +44055,8 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -44074,7 +44084,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -44103,7 +44113,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -44132,7 +44142,7 @@
       <c r="I5" s="89"/>
       <c r="J5" s="90"/>
       <c r="K5" s="89"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
   </sheetData>
@@ -44205,8 +44215,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -44314,7 +44324,9 @@
       <c r="L3" s="68" t="s">
         <v>2142</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="63" t="s">
+        <v>2144</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
@@ -44654,8 +44666,12 @@
         <v>2137</v>
       </c>
       <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="63"/>
+      <c r="L14" s="68" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>2146</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
@@ -44716,7 +44732,9 @@
         <v>2137</v>
       </c>
       <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
+      <c r="L16" s="68" t="s">
+        <v>2142</v>
+      </c>
       <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -44747,7 +44765,9 @@
         <v>2137</v>
       </c>
       <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="L17" s="68" t="s">
+        <v>2142</v>
+      </c>
       <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:13" ht="243" x14ac:dyDescent="0.3">
@@ -44999,64 +45019,64 @@
       <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="63"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="63"/>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="63"/>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="71"/>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -45074,7 +45094,7 @@
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L29">
+  <conditionalFormatting sqref="L3:L25">
     <cfRule type="containsText" dxfId="356" priority="6" operator="containsText" text="Automate">
       <formula>NOT(ISERROR(SEARCH("Automate",L3)))</formula>
     </cfRule>
@@ -45091,7 +45111,7 @@
       <formula>NOT(ISERROR(SEARCH("PASS",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M29">
+  <conditionalFormatting sqref="M3:M25">
     <cfRule type="containsText" dxfId="351" priority="1" operator="containsText" text="Not Shared">
       <formula>NOT(ISERROR(SEARCH("Not Shared",M3)))</formula>
     </cfRule>
@@ -45109,10 +45129,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J25" xr:uid="{CB001221-6F0A-4F3A-BB4F-D3C1601D4186}">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M29" xr:uid="{B469AE68-A45C-4D0F-91F2-8FBB454CF77D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M25" xr:uid="{B469AE68-A45C-4D0F-91F2-8FBB454CF77D}">
       <formula1>"Shared, Not Shared"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L29" xr:uid="{25E546EB-67DF-4C92-BA62-FD28DBE18375}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L25" xr:uid="{25E546EB-67DF-4C92-BA62-FD28DBE18375}">
       <formula1>"Automate, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -45132,8 +45152,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -45862,8 +45882,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M27"/>
+    <sheetView topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45916,10 +45936,10 @@
       <c r="K1" s="58" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -45937,8 +45957,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="214.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -45968,7 +45988,7 @@
         <v>2137</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -45999,7 +46019,7 @@
         <v>2137</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -46030,7 +46050,7 @@
         <v>2137</v>
       </c>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -46061,7 +46081,7 @@
         <v>2137</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46092,7 +46112,7 @@
         <v>2137</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="176.4" x14ac:dyDescent="0.3">
@@ -46123,7 +46143,7 @@
         <v>2137</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.3">
@@ -46154,7 +46174,7 @@
         <v>2137</v>
       </c>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46185,7 +46205,7 @@
         <v>2137</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -46216,7 +46236,7 @@
         <v>2137</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46247,7 +46267,7 @@
         <v>2137</v>
       </c>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46278,7 +46298,7 @@
         <v>2137</v>
       </c>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46309,7 +46329,7 @@
         <v>2137</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46340,7 +46360,7 @@
         <v>2137</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46371,7 +46391,7 @@
         <v>2137</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="63" x14ac:dyDescent="0.3">
@@ -46402,7 +46422,7 @@
         <v>2137</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -46433,7 +46453,7 @@
         <v>2137</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -46464,7 +46484,7 @@
         <v>2137</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="88.2" x14ac:dyDescent="0.3">
@@ -46495,7 +46515,7 @@
         <v>2137</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -46526,7 +46546,7 @@
         <v>2137</v>
       </c>
       <c r="K21" s="15"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -46557,7 +46577,7 @@
         <v>2137</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="50.4" x14ac:dyDescent="0.3">
@@ -46588,7 +46608,7 @@
         <v>2137</v>
       </c>
       <c r="K23" s="15"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -46619,7 +46639,7 @@
         <v>2137</v>
       </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -46650,7 +46670,7 @@
         <v>2137</v>
       </c>
       <c r="K25" s="15"/>
-      <c r="L25" s="100"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -46681,7 +46701,7 @@
         <v>2137</v>
       </c>
       <c r="K26" s="15"/>
-      <c r="L26" s="101"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="92"/>
     </row>
     <row r="27" spans="1:13" ht="37.799999999999997" x14ac:dyDescent="0.3">
@@ -46712,7 +46732,7 @@
         <v>2137</v>
       </c>
       <c r="K27" s="20"/>
-      <c r="L27" s="100"/>
+      <c r="L27" s="95"/>
       <c r="M27" s="91"/>
     </row>
   </sheetData>
@@ -46842,10 +46862,10 @@
       <c r="K1" s="58" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -46863,8 +46883,8 @@
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
@@ -46894,7 +46914,7 @@
         <v>2137</v>
       </c>
       <c r="K3" s="67"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -46925,7 +46945,7 @@
         <v>2137</v>
       </c>
       <c r="K4" s="67"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -46956,7 +46976,7 @@
         <v>2137</v>
       </c>
       <c r="K5" s="67"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -46987,7 +47007,7 @@
         <v>2137</v>
       </c>
       <c r="K6" s="67"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -47018,7 +47038,7 @@
         <v>2137</v>
       </c>
       <c r="K7" s="67"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -47049,7 +47069,7 @@
         <v>2137</v>
       </c>
       <c r="K8" s="67"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -47080,7 +47100,7 @@
         <v>2137</v>
       </c>
       <c r="K9" s="67"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -47111,7 +47131,7 @@
         <v>2137</v>
       </c>
       <c r="K10" s="67"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="210.6" x14ac:dyDescent="0.3">
@@ -47142,7 +47162,7 @@
         <v>2137</v>
       </c>
       <c r="K11" s="67"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="210.6" x14ac:dyDescent="0.3">
@@ -47173,7 +47193,7 @@
         <v>2137</v>
       </c>
       <c r="K12" s="67"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="226.8" x14ac:dyDescent="0.3">
@@ -47204,7 +47224,7 @@
         <v>2137</v>
       </c>
       <c r="K13" s="67"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="307.8" x14ac:dyDescent="0.3">
@@ -47235,7 +47255,7 @@
         <v>2137</v>
       </c>
       <c r="K14" s="67"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -47266,7 +47286,7 @@
         <v>2137</v>
       </c>
       <c r="K15" s="67"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -47297,7 +47317,7 @@
         <v>2137</v>
       </c>
       <c r="K16" s="67"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
@@ -47328,7 +47348,7 @@
         <v>2137</v>
       </c>
       <c r="K17" s="67"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -47359,7 +47379,7 @@
         <v>2137</v>
       </c>
       <c r="K18" s="67"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
@@ -47390,7 +47410,7 @@
         <v>2137</v>
       </c>
       <c r="K19" s="67"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -47421,7 +47441,7 @@
         <v>2137</v>
       </c>
       <c r="K20" s="67"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -47452,7 +47472,7 @@
         <v>2137</v>
       </c>
       <c r="K21" s="67"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -47483,7 +47503,7 @@
         <v>2137</v>
       </c>
       <c r="K22" s="67"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -47514,7 +47534,7 @@
         <v>2137</v>
       </c>
       <c r="K23" s="67"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
@@ -47545,7 +47565,7 @@
         <v>2137</v>
       </c>
       <c r="K24" s="75"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -47694,10 +47714,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="93" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="93" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -47715,8 +47735,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -47744,7 +47764,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="16"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="91"/>
     </row>
     <row r="4" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
@@ -47773,7 +47793,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="101"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="138.6" x14ac:dyDescent="0.2">
@@ -47802,7 +47822,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="100"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.2">
@@ -47831,7 +47851,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="101"/>
+      <c r="L6" s="96"/>
       <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="151.19999999999999" x14ac:dyDescent="0.2">
@@ -47860,7 +47880,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="100"/>
+      <c r="L7" s="95"/>
       <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47889,7 +47909,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.2">
@@ -47918,7 +47938,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="100"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -47947,7 +47967,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -47976,7 +47996,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="100"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="91"/>
     </row>
     <row r="12" spans="1:13" ht="50.4" x14ac:dyDescent="0.2">
@@ -48005,7 +48025,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="92"/>
     </row>
     <row r="13" spans="1:13" ht="63" x14ac:dyDescent="0.2">
@@ -48034,7 +48054,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="100"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="91"/>
     </row>
     <row r="14" spans="1:13" ht="75.599999999999994" x14ac:dyDescent="0.2">
@@ -48063,7 +48083,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -48092,7 +48112,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
-      <c r="L15" s="100"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
@@ -48121,7 +48141,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:13" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48150,7 +48170,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="100"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="91"/>
     </row>
     <row r="18" spans="1:13" ht="189" x14ac:dyDescent="0.2">
@@ -48182,7 +48202,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.2">
@@ -48211,7 +48231,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="100"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="91"/>
     </row>
     <row r="20" spans="1:13" ht="163.80000000000001" x14ac:dyDescent="0.2">
@@ -48240,7 +48260,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="92"/>
     </row>
     <row r="21" spans="1:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -48269,7 +48289,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="100"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -48298,7 +48318,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="92"/>
     </row>
     <row r="23" spans="1:13" ht="113.4" x14ac:dyDescent="0.2">
@@ -48327,7 +48347,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="91"/>
     </row>
     <row r="24" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -48356,7 +48376,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="92"/>
     </row>
     <row r="25" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -48385,7 +48405,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="100"/>
+      <c r="L25" s="95"/>
       <c r="M25" s="91"/>
     </row>
     <row r="26" spans="1:13" ht="88.2" x14ac:dyDescent="0.2">
@@ -48414,7 +48434,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="83"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="101"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="92"/>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -48556,10 +48576,10 @@
       <c r="K1" s="84" t="s">
         <v>1095</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="98" t="s">
         <v>2138</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="99" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -48577,8 +48597,8 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="208.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
